--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0ABEB-2490-44E4-9C6A-A72A194DF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC1AFF-2DBE-4655-9817-17BA0A57B5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -350,6 +350,66 @@
   </si>
   <si>
     <t>Lisbon</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>Austrian Mint (under German annexation)</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Muldenhütten</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Münzstätte Dresden</t>
+  </si>
+  <si>
+    <t>Münzstätte Muldenhütten</t>
+  </si>
+  <si>
+    <t>Dresden Mint</t>
+  </si>
+  <si>
+    <t>Muldenhütten Mint</t>
+  </si>
+  <si>
+    <t>Kaiserliche Münzstätte Frankfurt</t>
+  </si>
+  <si>
+    <t>Imperial Mint Frankfurt</t>
+  </si>
+  <si>
+    <t>Die Königliche Münze am Steintor</t>
+  </si>
+  <si>
+    <t>The Royal Mint at the Steintor</t>
+  </si>
+  <si>
+    <t>Mint of Hesse-Darmstadt</t>
+  </si>
+  <si>
+    <t>Münzprägeanstalt von Hessen-Darmstadt</t>
   </si>
 </sst>
 </file>
@@ -556,31 +616,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -692,6 +727,31 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -847,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -862,11 +922,11 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name_Eng" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="OfficialMintName_Native" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{129A8B8F-3225-4774-B86A-C68665CF9F85}" name="Country" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mint_City" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alias" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{115E2CF9-AC1E-4D40-9E0F-8604D42DB52D}" name="Year_of_start" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{0815C598-72BB-486D-B863-EE0EBDC46F96}" name="Year_of_end" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{129A8B8F-3225-4774-B86A-C68665CF9F85}" name="Country" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mint_City" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alias" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{115E2CF9-AC1E-4D40-9E0F-8604D42DB52D}" name="Year_of_start" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0815C598-72BB-486D-B863-EE0EBDC46F96}" name="Year_of_end" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -876,9 +936,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0D344E5-8BF4-4519-8DD3-0F7C606DCFDC}" name="Таблица4" displayName="Таблица4" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{A0D344E5-8BF4-4519-8DD3-0F7C606DCFDC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9157204D-FB83-40DD-AD0D-3047B2A53B79}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0746AD28-FF4C-41D2-A884-C4C129F9BF75}" name="Links:" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{E3C37974-BE79-4CD2-B013-C73FEB44F571}" name="Description:" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9157204D-FB83-40DD-AD0D-3047B2A53B79}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0746AD28-FF4C-41D2-A884-C4C129F9BF75}" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{E3C37974-BE79-4CD2-B013-C73FEB44F571}" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1147,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,124 +1274,126 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+      <c r="B3" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1591</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1938</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1944</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1591</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G5" s="10">
         <v>1973</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10">
-        <v>989</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2017</v>
-      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10">
+        <v>989</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>1010</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1994</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1340,46 +1402,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1994</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>1972</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1988</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1388,22 +1450,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7">
-        <v>1280</v>
+        <v>1988</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1411,217 +1473,371 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>67</v>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>68</v>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="7">
-        <v>1871</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>1280</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G12" s="7">
-        <v>1374</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>1872</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1878</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7">
-        <v>1827</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>1872</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1879</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>77</v>
+      <c r="E14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="7">
-        <v>801</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>1871</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>65</v>
+        <v>108</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7">
-        <v>1990</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>1872</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1887</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
+      <c r="B16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="G16" s="7">
-        <v>1328</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>1888</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1953</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>87</v>
+      <c r="B17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="7">
-        <v>1976</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>1374</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1827</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1872</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7">
+        <v>801</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1990</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1328</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1976</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G24" s="7">
         <v>1928</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G25" s="7">
         <v>1972</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1637,7 +1853,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC1AFF-2DBE-4655-9817-17BA0A57B5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E59C1-F7C4-42F0-9D8E-352E0794C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -410,6 +410,60 @@
   </si>
   <si>
     <t>Münzprägeanstalt von Hessen-Darmstadt</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Saint Petersburg</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский монетный двор</t>
+  </si>
+  <si>
+    <t>Московский монетный двор</t>
+  </si>
+  <si>
+    <t>Saint Petersburg Mint</t>
+  </si>
+  <si>
+    <t>Moscow Mint</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Луганський монетний двір</t>
+  </si>
+  <si>
+    <t>Банкнотно-монетний двір Національного банку України</t>
+  </si>
+  <si>
+    <t>NBU</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Luhansk Mint</t>
+  </si>
+  <si>
+    <t>Luhansk</t>
+  </si>
+  <si>
+    <t>National Bank of Ukraine Banknote Printing and Minting</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
   </si>
 </sst>
 </file>
@@ -907,8 +961,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H29" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1207,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,6 +1892,104 @@
         <v>1972</v>
       </c>
       <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1942</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1724</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1992</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1998</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E59C1-F7C4-42F0-9D8E-352E0794C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241967E-092C-404C-A60E-485DC1BA82FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1490" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -464,6 +464,63 @@
   </si>
   <si>
     <t>Kyiv</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great </t>
+  </si>
+  <si>
+    <t>Royal Mint</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia </t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>United States Mint of Philadelphia</t>
+  </si>
+  <si>
+    <t>United States Mint of Denver</t>
+  </si>
+  <si>
+    <t>United States Mint of San Francisco</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>United States Mint of New Orleans</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>United States Mint of West Point</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -961,8 +1018,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H29" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H35" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1261,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,6 +2047,152 @@
         <v>1998</v>
       </c>
       <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1968</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1792</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1906</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1854</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1835</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1973</v>
+      </c>
+      <c r="H35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241967E-092C-404C-A60E-485DC1BA82FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85229FDE-B8D5-46DC-ACA3-92C4EEE26150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1490" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -521,6 +521,21 @@
   </si>
   <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>Royal Canadian Mint of Ottawa</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Royal Canadian Mint of Winnipeg</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H35" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1318,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2193,6 +2208,54 @@
         <v>1973</v>
       </c>
       <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1908</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1976</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85229FDE-B8D5-46DC-ACA3-92C4EEE26150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E1F38-23F7-41DC-A69D-C0B6264C4732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -536,6 +536,36 @@
   </si>
   <si>
     <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>Cherlapally</t>
+  </si>
+  <si>
+    <t>India Government Mint, Hyderabad</t>
+  </si>
+  <si>
+    <t>India Government Mint, Mumbai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>India Government Mint, Kolkata</t>
+  </si>
+  <si>
+    <t>Calcutta</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1063,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1333,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2256,6 +2286,78 @@
         <v>1976</v>
       </c>
       <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1803</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1829</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1757</v>
+      </c>
+      <c r="H40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E1F38-23F7-41DC-A69D-C0B6264C4732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0BE5B-3FF4-43DC-99E6-27515663F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -566,6 +566,21 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>Kazakhstan Mint</t>
+  </si>
+  <si>
+    <t>Қазақстан теңге сарайы</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Ust-Kamenogorsk</t>
+  </si>
+  <si>
+    <t>QUB</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1363,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2358,6 +2373,30 @@
         <v>1757</v>
       </c>
       <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1992</v>
+      </c>
+      <c r="H41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0BE5B-3FF4-43DC-99E6-27515663F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03286ED4-DC79-4F6C-8B79-2B48F969DEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03286ED4-DC79-4F6C-8B79-2B48F969DEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F681ADA-EE7D-4743-907B-4DA1F77A4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="4" r:id="rId1"/>
+    <sheet name="Years_of_work" sheetId="5" r:id="rId2"/>
+    <sheet name="Links" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -469,9 +470,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t xml:space="preserve">Great </t>
-  </si>
-  <si>
     <t>Royal Mint</t>
   </si>
   <si>
@@ -581,6 +579,126 @@
   </si>
   <si>
     <t>QUB</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Madras Presidency Mint</t>
+  </si>
+  <si>
+    <t>Chennai(Madras untill 1994)</t>
+  </si>
+  <si>
+    <t>Llantrisant</t>
+  </si>
+  <si>
+    <t>Heaton and Sons / The Mint Birmingham</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>The Mint Birmingham</t>
+  </si>
+  <si>
+    <t>Smethwick</t>
+  </si>
+  <si>
+    <t>James Watt &amp; Co.</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>JWC</t>
+  </si>
+  <si>
+    <t>South African Mint</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>Mint_id</t>
+  </si>
+  <si>
+    <t>South African Mint Company</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Shalimar</t>
+  </si>
+  <si>
+    <t>Pakistan Mint</t>
+  </si>
+  <si>
+    <t>پاکستان ٹکسال</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>India Government Mint, Noida</t>
+  </si>
+  <si>
+    <t>India Government Mint</t>
+  </si>
+  <si>
+    <t>भारत सरकार टकसाल, नोएडा</t>
+  </si>
+  <si>
+    <t>IGMN</t>
+  </si>
+  <si>
+    <t>भारत सरकार टकसाल, हैदराबाद</t>
+  </si>
+  <si>
+    <t>भारत सरकार टकसाल, मुंबई</t>
+  </si>
+  <si>
+    <t>भारत सरकार टकसाल, कोलकाता</t>
+  </si>
+  <si>
+    <t>한국조폐공사</t>
+  </si>
+  <si>
+    <t>Korea Minting and Security Printing Corporation</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KOMSCO</t>
+  </si>
+  <si>
+    <t>Casa de Moneda de México</t>
+  </si>
+  <si>
+    <t>Mexican Mint</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>MO</t>
   </si>
 </sst>
 </file>
@@ -730,36 +848,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -771,13 +865,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -785,7 +912,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -847,6 +974,142 @@
         </patternFill>
       </fill>
       <alignment textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1078,32 +1341,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:H41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name_Eng" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="OfficialMintName_Native" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{129A8B8F-3225-4774-B86A-C68665CF9F85}" name="Country" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mint_City" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alias" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{115E2CF9-AC1E-4D40-9E0F-8604D42DB52D}" name="Year_of_start" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{0815C598-72BB-486D-B863-EE0EBDC46F96}" name="Year_of_end" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}" name="Таблица3" displayName="Таблица3" ref="A1:F49" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:F49" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9B214566-8DCC-4DAE-AACA-3EF9D6DCC3E2}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{0822E6C6-95EF-4813-B77F-89E2C31F1545}" name="Name_Eng" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BE170394-3A11-4C1D-947E-84827ADAE984}" name="OfficialMintName_Native" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{B40DF8A4-4058-4F82-B0E6-AFE240448A87}" name="Country" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{93A3BE84-3E4E-41CD-B2C5-1E91B7FA9DEB}" name="Mint_City" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{BFF75BB1-E0E0-4A53-9C47-96FEF81128ED}" name="Alias" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9B6C603A-0DAD-4DF4-B88F-22187551A95D}" name="Таблица35" displayName="Таблица35" ref="A1:E50" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:E50" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F5E4ED06-7648-4A6B-912D-E29E9639930C}" name="ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{01082245-4FBB-4BD5-B4FB-D8CE204E9DAC}" name="Mint_id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{84270B29-1D81-4F83-AB46-CDF75A2C1FFA}" name="Name_Eng" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1DC85CDD-BF82-4AC1-BDDF-3ED8187E50F2}" name="Year_of_start" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{016F4481-FC1C-4D19-8849-FB37A6E3599C}" name="Year_of_end" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0D344E5-8BF4-4519-8DD3-0F7C606DCFDC}" name="Таблица4" displayName="Таблица4" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{A0D344E5-8BF4-4519-8DD3-0F7C606DCFDC}"/>
   <tableColumns count="3">
@@ -1377,1042 +1643,1825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F567046-1076-423B-9301-A4C4B3099295}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.26953125" customWidth="1"/>
     <col min="3" max="3" width="65.36328125" customWidth="1"/>
     <col min="4" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="5.36328125" customWidth="1"/>
-    <col min="7" max="8" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="B38" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1194</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1938</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1591</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1973</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="10">
-        <v>989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1010</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1994</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1972</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B42" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1988</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1280</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1872</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1872</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1871</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1872</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1888</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1374</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1827</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1872</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7">
-        <v>801</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B47" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B48" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="G21" s="7">
-        <v>1990</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1328</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1976</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1928</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1972</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1942</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1724</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1992</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1998</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="7">
-        <v>1968</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1792</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1906</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1854</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1835</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1973</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1908</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="7">
-        <v>1976</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1803</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1829</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1757</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1992</v>
-      </c>
-      <c r="H41" s="7"/>
+      <c r="B49" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D3858-4890-4838-97AD-40F1220631B7}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1194</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1938</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1591</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1973</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12">
+        <v>989</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1010</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1994</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1972</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1988</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1280</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1872</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1872</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1871</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1872</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1888</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1374</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1827</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1872</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="13">
+        <v>801</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>20</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1990</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1328</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>22</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1976</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1928</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1972</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1942</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1724</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1992</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1998</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>29</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1968</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1792</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1906</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>32</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1854</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>33</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1835</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>34</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1973</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>35</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1908</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1976</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>37</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1803</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>38</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1829</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>39</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1757</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>40</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1640</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9">
+        <v>41</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1992</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1850</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>43</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1860</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>44</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1890</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1923</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1943</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1988</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1951</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9">
+        <v>47</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1535</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F847E8-161F-45A1-A883-F5DDE88A10FD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2426,7 +3475,7 @@
       <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
@@ -2437,10 +3486,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F681ADA-EE7D-4743-907B-4DA1F77A4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC9FB29-401E-4C25-8D62-E3B0CE946946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2658,7 +2658,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2824,7 +2824,9 @@
       <c r="D10" s="13">
         <v>1988</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13">
+        <v>2025</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">

--- a/Info/Mint_Alias.xlsx
+++ b/Info/Mint_Alias.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC9FB29-401E-4C25-8D62-E3B0CE946946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25886F6F-3E02-43B1-9EE7-570DEBF74A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1646,11 +1649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F567046-1076-423B-9301-A4C4B3099295}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,11 +2657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D3858-4890-4838-97AD-40F1220631B7}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
